--- a/DOWNLOADS/EDITAIS/U_987493_E_901152025_06-10-2025_09h00m/U_987493_E_901152025_06-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_987493_E_901152025_06-10-2025_09h00m/U_987493_E_901152025_06-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="229">
   <si>
     <t>Nº</t>
   </si>
@@ -496,235 +496,202 @@
     <t>Câmera Web Câmera Web Conexão: Interface Usb 2.0, Captura Cores: 30 Fps, Tamanho Imagem: 1280 X 720 Pixels, Compatibilidade: Windows 10, Resolução: Full Hd 1080MPX, Características Adicionais: Microfone Embutido</t>
   </si>
   <si>
-    <t>ANDADOR DE ALUMÍNIO FIXO, MÓVEL E DOBRÁVEL, COM REGULAGEM DE ALTURA FÁCIL E RÁPIDA, SEM NECESSIDADE DE DESMONTAGEM; ESTRUTURA EM ALUMÍNIO ANODIZADO DE ALTA RESISTÊNCIA; SUPORTA ATÉ 100KG; LEVE E FÁCIL DE MANUSEAR, PESANDO MENOS DE 2,3KG: OITO NÍVEIS DE REGULAGEM DE ALTURA; SISTEMA DE TRAVA- CLIQUE E ENGATE RÁPIDO PARA ABRIR E FECHAR; APOIO DE MÃO EMBORRACHADO, MACIO E ANATÔMICO; MARCHA COM BAIXO NÍVEL DE RUÍDO; PONTEIRAS EMBORRACHADAS COM ANEL DE AÇO INTERNO PARA MAIOR ADERÊNCIA E DURABILIDADE;</t>
-  </si>
-  <si>
-    <t>APRESENTADOR DE SLIDES SEM FIO COM PONTEIRA A LASER VERMELHA, CONTROLES INTUITIVOS E INDICADOR DE LED; BOTÕES PARA NAVEGAÇÃO DE SLIDES; TECNOLOGIA DE 2,4 GHZ COM ALCANCE DE ATÉ 30 METROS; PONTEIRA A LASER VISÍVEL COM ALCANCE SUPERIOR A 200 METROS; COMPATÍVEL COM WINDOWS, MAC, LINUX E ANDROID; RECEPTOR SEM FIO PLUG-AND-PLAY COM CONEXÃO USB E TYPE-C; ALIMENTAÇÃO POR DUAS PILHAS AAA; TENSÃO DE OPERAÇÃO ENTRE 4,5V E 5,5V: DESIGN ERGONÔMICO E COMPACTO. ACOMPANHA: DUAS PILHAS AAA, RECEPTOR USB/TYPE-C E DOCUMENTAÇÃO DO USUÁRIO.</t>
-  </si>
-  <si>
-    <t>ARMÁRIO DE AÇO 1,20 X 1,98 X 0,45 CM, COM 2 PORTAS DE ABRIR.-PORTAS E BANDEJAS FABRICADAS EM CHAPAS 24" LATERAIS FABRICADAS EM CHAPAS DE 22".- BANDEJAS INTERNAS REGULÁVEIS NOS SISTEMAS DE ENCAIXA.- PORTAS COM MAÇANETAS CROMADAS E FECHADURAS EMBUTIDAS.- SISTEMA DE TRAVAMENTO COM VARETAS SUPERIOR E INFERIOR.-PINTURA ELETROSTÁTICA COM SECAGEM EM ESTUFAS A TEMPERATURA DE 120®, NA COR CINZA</t>
-  </si>
-  <si>
-    <t>ARMÁRIO ALTO C/ 03 PORTAS DE ABRIR, CONFEC. EM MDP 18MM P/ AS LATERAIS, FUNDO, PORTAS E PRATELEIRAS, C/ 05 PRATELEIRAS INTERNA E CHAVE INDIVIDUAL. TAMPO EM MDP 25MM DE ESPESSURA. ACAB. EM FITA RETA E PVC DE 2MM NA MESMA COR DO IMÓVEL. ACAB. EM PAU MARFIN. BASE EM TUDO DE AÇO 30X50 MM PINTADO EM EPÓXI NA COR PRETA. SAPATAS REGULADORAS DE NIVEL MEDIDAS 2100X1200X450MM</t>
-  </si>
-  <si>
-    <t>ASSENTO DE ELEVAÇÃO PARA VEÍCULOS, NA COR PRETA, INDICADO PARA CRIANÇAS DE 15 A 36KG (GRUPOS 2 E 3); COMPATÍVEL COM CINTO DE SEGURANÇA DE 3 PONTOS DO VEÍCULO: PRODUTO CERTIFICADO PELO INMETRO (000217/2021) E APROVADO DE ACORDO COM A NORMA ABNT NBR 14400:2020; ESTRUTURA RESISTENTE, CONFORTÁVEL E SEGURA; DIMENSÕES (LAP): 22CM (ALTURA) X 37CM (LARGURA) X 43CM (PROFUNDIDADE).</t>
-  </si>
-  <si>
-    <t>BAIA INICIAL FECHADA PARA ATENDIMENTO, FABRICADA EM MDP MELAMÍNICO DE 15MM NA COR CINZA; MEDIDAS: 120CM (ALTURA) X 80CM (LARGURA) X 60CM (PROFUNDIDADE); ALTURA DO TAMPO DE 74CM: POSSUI FUNDO FECHADO NA MESMA COR; ESTRUTURA COM PÉS NIVELADORES DE ALTURA.</t>
-  </si>
-  <si>
-    <t>BUFFET REFRIGERADO COM 06 CUBAS: CONSERVAÇÃO DE ALIMENTOS RESFRIADOS, SALADAS, FRUTAS, SOBREMESAS, FRIOS, ETC./ CONSERVAÇÃO DE ALIMENTOS ATRAVÉS DE PLACAS DE GELO-X (UMA POR CUBA)./ EQUIPAMENTO DE ACORDO COM A PORTARIA 371/09 DO INMETRO./ CORPO E BANHO-MARIA EM AÇO INOX AISI 430./ TAMPAS DAS CUBAS COM PEGADOR ESTAMPADO EM AÇO INOX./ ESTRUTURA TUBULAR 0 1.1/2\\" CURVADO EM MÁQUINA ESPECIAL COM ESTRUTURA CROMADA./ CUBAS DE ACORDO COM O PADRÃO MUNDIAL GASTRONORM, DE 1/2 E 1/1./ EQUIPAMENTO COM RODÍZIOS COM TRAVA PARA FACILITAR O TRANSPORTE. CAPACIDADE: 06 CUBAS 1/2 DE 325X265X60 MM. DIMENSÕES: ALTURA: 1290 MM./ LARGURA: 680 MM./ PROFUNDIDADE; 1110 MM./ PESO APROX: 50 KG. MEDIDAS DAS CUBAS: CUBA</t>
-  </si>
-  <si>
-    <t>BATEDEIRA PLANETÁRIA SEMI-PROFISSIONAL COM CAPACIDADE DE 5 LITROS; ESTRUTURA EM AÇO CARBONO E TAMPA EM POLIURETANO TERMOFORMADO; CONTROLE ELETRÔNICO COM 10 VELOCIDADES; POTÊNCIA DE 1.000W; TENSÃO BIVOLT; POSSUI PÉS DE BORRACHA COM REGULAGEM PARA MAIOR ESTABILIDADE; ACOMPANHA 3 TIPOS DE BATEDORES {RAQUETE, ESPIRAL E GLOBO) E ESCORREGADOR DE INGREDIENTES; DIMENSÕES: 45CM (ALTURA) X 22CM (LARGURA) X 46CM (PROFUNDIDADE); PESO: 15KG.</t>
-  </si>
-  <si>
-    <t>BENGALA TIPO T, FABRICADA EM TUBO DE ALUMÍNIO, COM PONTEIRA ARTICULADA; INDICADA PARA USUÁRIOS COM ALTURA ENTRE 1,50M E 2,00M: SUPORTA ATÉ 100KG; ALTURA REGULÁVEL DE 75CM A 98CM</t>
-  </si>
-  <si>
-    <t>BEBÊ CONFORTO, CADEIRA DE TRANSPORTE GRUPO 0+, INDICADO PARA CRIANÇAS DE 0 A 13KG; SISTEMA DE SEGURANÇA COM CINTO DE 3 PONTOS; POSSUI ALÇA FIXA E CAPOTA REMOVÍVEL; DIMENSÕES: 58CM (LARGURA) X 46CM (ALTURA) X 65CM (PROFUNDIDADE)</t>
-  </si>
-  <si>
-    <t>CADEIRA DE BANHO HIGIÊNICA DOBRÁVEL, COM ESTRUTURA EM AÇO CARBONO, SUPORTA ATÉ 100KG; MODELO 2 EM 1, UTILIZADA PARA BANHO E COMO SOBREVASO; POSSUI RODÍZIOS 360° PARA FACILITAR A MOBILIDADE; ASSENTO COM LARGURA DE 44CM E ALTURA DE 50CM; ESTRUTURA DOBRÁVEL PARA FACILITAR -O TRANSPORTE E ARMAZENAMENTO: LEVE E RESISTENTE, PESANDO 6,6KG. DIMENSÕES: 90CM (ALTURA) X 50CM (LARGURA) X 59CM (COMPRIMENTO); ASSENTO COM MEDIDAS DE 42,5CM X 42,5CM E ESPAÇO LIVRE DE 44CM</t>
-  </si>
-  <si>
-    <t>CADEIRA PLÁSTICA: SEM BRAÇO, TIPO BISTRÔ, BRANCA. EMPILHÁVEL, PRODUTO CERTIFICADO PELO INMETRO, USO IRRESTRITO (AMBIENTE INTERNO E EXTERNO). CAPACIDADE: 182 KG, MATERIAL: POLIPROPILENO COM ANTI-UV. DIMENSÕES APROXIMADAS: LARG. 39,5 CM - ALT. 87 CM.</t>
-  </si>
-  <si>
-    <t>CADEIRA DE SEGURANÇA PARA AUTO, INDICADA PARA CRIANÇAS DE 9 A 36KG, GRUPOS 1, 2 E 3; UTILIZAÇÃO EXCLUSIVA DE FRENTE PARA O MOVIMENTO DO VEÍCULO; POSSUI CINTO DE SEGURANÇA DE 5 PONTOS, PROPORCIONANDO MAIOR PROTEÇÃO E ESTABILIDADE; ESTRUTURA RESISTENTE E CONFORTÁVEL; DIMENSÕES: 63,9CM (ALTURA) X 42,6CM (LARGURA) X 47,5CM (PROFUNDIDADE).</t>
-  </si>
-  <si>
-    <t>CADEIRA DÊ JANTAR COM ESTRUTURA EM AÇO OU MADEIRA; ASSENTO REVESTIDOS EM COURINO; SUPORTA ATÉ 100KG.</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM AMPLIFICADA COM POTÊNCIA DE 1300W: CONEXÕES BLUETOOTH, USB, ENTRADA PARA MICROFONE E GUITARRA; COM função Rádio am/fm</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM PRETA. USB, PARA PC, COM ENTRADA AUXILIAR P/ FONE DE OUVIDO.</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM BLUETOOTH COM POTÊNCIA DE 20W RMS; RESPOSTA DE FREQUÊNCIA DE 65HZ A 20KHZ: VERSÃO BLUETOOTH 5.1; PERFIS A2DP 1.3 E AVRCP 1.6; TEMPO DE CARGA DE 3 HORAS E ATÉ 10 HORAS DE REPRODUÇÃO; DIMENSÕES DE 17,5 X 6,8 X 7CM; PESO DE 0,52KG; À PROVA DE RESPINGOS D'ÁGUA; POSSUI batería RECARREGÁVEL E CONEXÃO WIRELESS</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM BLUETOOTH COM POTÊNCIA DE 4,2W RMS; RESPOSTA DE FREQUÊNCIA DE 110HZ A 20KHZ; VERSÃO BLUETOOTH 5.1; PERFIS A2DP 1.3 E AVRCP 1.6; TEMPO DE CARGA DE 2,5 HORAS E ATÉ 5 HORAS DE REPRODUÇÃO; CLASSIFICAÇÃO 1P67 À PROVA DE RESPINGOS D'ÁGUA E POEIRA; DIMENSÕES DE 8,75 X 7,5 X 4,13CM; PESO DE 0,209KG; POSSUI batería RECARREGÁVEL E CONEXÃO WIRELESS</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM ATIVA E PASSIVA COM ALTO-FALANTE DE 12" E POTÊNCIA TOTAL DE 500W; CONEXÕES BLUETOOTH, USB, CARTÃO SD E RÁDIO FM; CAIXA ATIVA COM 250W RMS EM 4 OHMS E CAIXA PASSIVA COM 250W; FREQUÊNCIA DE 20HZ A 20KHZ (ATIVA) E 60HZ A 18KHZ (PASSIVA): ENTRADAS PARA MICROFONE E LINE (P10/XLR), SAÍDA PARA CAIXA PASSIVA E SAÍDA LINE BALANCEADA; EQUALIZAÇÃO ATIVA DE 3 VIAS; FUNCIONAMENTO BIVOLT COM SELETOR; SUPORTE PARA PEDESTAL, ALÇA PARA TRANSPORTE E TELA METÁLICA DE PROTEÇÃO; ACOMPANHA CONTROLE REMOTO; DIMENSÕES DE 58 X 40 X 40CM CADA UNIDADE,</t>
-  </si>
-  <si>
-    <t>BELICHE CONFECCIONADA EM TUBO DE AÇO 60X60MM PARA AS ESTRUTURAS VERTICAIS, LONGARINAS TRANSVERSAIS EM TUBO DE AÇO 40X80MM, ESTRADEM MDF DE 15MM INTEIRIÇO COM FURAÇÃO PARA VENTILAÇÃO, SAPATAS NIVELADORAS DE SOLO PINTURA ELETROSTÁTICA A PÓ EPOXI NA COR PRETA, MEDIDAS 2000X1000X1500MM. COM COLCHÃO DENSIDADE 33 DE 98 CM DE LARGURA PARA ATÉ 150 KG</t>
-  </si>
-  <si>
-    <t>CÂMERA DIGITAL COM SENSOR APS-C DE 24,1 MEGAPIXELS; VÍDEO EM FULL HD 1080P A 24P, 25P E 30P: DISPARO CONTÍNUO DE 3 FPS; TELA LCD DE 3.0”; PROCESSADOR DE IMAGEM DIGIC 4+: SENSIBILIDADE ISO DE 100 A 6400; VELOCIDADE DO OBTURADOR DE 30 SEGUNDOS A 1/4000 SEG.; SISTEMA DE FOCO COM 9 PONTOS, SENDO O CENTRAL DO TIPO CRUZADO; FLASH COM MODOS AUTOMÁTICO, MANUAL E X-SYNCRO; NÃO POSSUI ENTRADA PARA MICROFONE EXTERNO; DIMENSÕES DE 129,0 X 101,3 X 77,6MM E PESO DE 475G (SOMENTE CORPO).</t>
-  </si>
-  <si>
-    <t>CAMPAINHA SEM FIO. A PROVA D ÁGUA. DISTÂNCIA DE COBERTURA: 100 METROS (MÍNIMO). TENSÃO: 127 VOLTS.</t>
-  </si>
-  <si>
-    <t>CILINDRO LAMINADOR INDUSTRIAL ELÉTRICO PARA MASSA DE PÃO, PASTEL E PIZZA COM CILINDROS EM AÇO INOX DE 40CM; ESPESSURA REGULÁVEL DE 1 A 10MM COM 2 MANÍPULOS; BANDEJAS EM AÇO INOX; CARENAGEM EM AÇO CARBONO PINTADO COM EPÓXI BRANCA; MOTOR DE 1/2 CV; RPM DE 66; BIVOLT; DIMENSÕES DE 47 X 47 X 66CM; PESO DE 32KG.</t>
-  </si>
-  <si>
-    <t>CLIMATIZADOR EVAPORATIVO INDUSTRIAL PORTÁTIL , TENSÃO: 220V, COM CONTROLE REMOTO, MOTOR EM ALUMÍNIO, 3 VELOCIDADES, VAZÃO MÍNIMA: 30,000 M=&gt;H, CONSUMO DE ENERGIA MÉDIO: 1,53 KWH DIMENSÕES: 1730 X 1120 X 680 MM (ALP), PESO MÉDIO: 80 KG, COM 04 RODAS.</t>
-  </si>
-  <si>
-    <t>COLCHÃO HOSPITALAR D33, PRODUZIDO COM ESPUMA DE POLIOL VEGETAL, REVESTIDO COM FORRAÇAO IMPERMEÁVEL NA COR AZUL, COM SISTEMA DE RESPIRO PARA VENTILAÇÃO, COM TRATAMENTO ANTIÁCARO E ANTIFUNGO, SUPORTE DE PESO: 100KG, CERTIFICADO PELO INMETRO*</t>
-  </si>
-  <si>
-    <t>COLCHONETE HOSPITALAR MODELO CASCA DE OVO COM DENSIDADE D23; COR BEGE; ALTURA DE 5CM: MEDIDAS SOLTEIRO 88 X 188 X SCM; GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>COMPRESSOR INFLADOR DE BALÕES COM POTÊNCIA DE 1000W; TENSÃO 11OV; CABO DE ENERGIA DE 2 METROS; DUAS SAIDAS DE AR COM BICOS FIXOS E ACOMPANHA 1 BICO VERDE PARA BALÕES 260; ESTRUTURA EM PLÁSTICO ABS; MEDIDAS DE 20CM (ALTURA) X 15CM (DIÂMETRO); PESO DE 1,3KG; DIMENSÕES DA EMBALAGEM 23 X 18 X 17CM; GARANTIA DE 6 MESES.</t>
-  </si>
-  <si>
-    <t>KIT COM 10 CÂMERAS INTELBRAS FULL COLOR 2MP 1080P: DVR MHDX 1016-C COM 16 CANAIS + 2 IP; HD DE 1TB; COMPATÍVEL COM AS TECNOLOGIAS HDCVI, HDTVI, AHD, CVBS E IP; COMPRESSÃO DE VÍDEO H,265+, H.265, H.264+, H.264; SAÍDAS HDMI E VGA; ACESSO REMOTO PELOS APLICATIVOS INTELBRAS ISIC E GUARDIAN; FONTE 12V 15A; 1 ROLO DE CABO COAXIAL 100 METROS 4MM 80% MALHA; 20 CONECTORES BNC DE MOLA; 10 CONECTORES P4 MACHO; 10 CAIXAS DE SOBREPOR PARA PROTEÇÃO DE CONECTORES: CÂMERAS COM VISÃO NOTURNA COLORIDA FULL COLOR; SENSOR COM ALTA SENSIBILIDADE; USO INTERNO E EXTERNO; SUPORTA HD DE ATÉ 18TB; GRAVAÇÃO EM 1080P LITE/720P/960H/D1/CIF; DETECÇÃO DE MOVIMENTO, PERDA DE VÍDEO MASCARAMENTO E DETECÇÃO INTELIGENTE DE PESSOAS E VEÍCULOS.</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE RAMPAS PIKLER. FABRICADO EM MADEIRA MACIÇA DE REFLORESTAMENTO. CANTOS ARREDONDADOS. COMPOSTO POR DUAS RAMPAS LISAS FECHADAS, UMA RAMPA VAZADA E UMA BASE PLANA. REVESTIDO POR RESINA ATÔXICA. MEDIDAS MÍNIMAS DAS RAMPAS FECHADAS:(A X L X C); 15 CM X 60 CM X 45 CM. MEDIDAS MÍNIMAS DA RAMPA VAZADA ( A X L X C): 15 CM X 60 CM X 45 CM. BASE PLANA: (A X L X C): 15 CM X 60 X CM X 45 CM. SEGUEM FOTOS DO PRODUTO EM ANEXO,</t>
-  </si>
-  <si>
-    <t>CUBO DUPLO: DEVE SER CONFECCIONADO EM MDF OU MADEIRA DE REFLORESTAMENTO. REVESTIDO POR RESINA ATÓXICA. MEDIDAS APROXIMADAS DO PRODUTO: (C X A X L) 85 X 40 X 40 CM. PESO APROXIMADO: 8,600 KG. CONFORME MODELO EM ANEXO,</t>
-  </si>
-  <si>
-    <t>MONITOR DE PRESSÃO ARTERIAL AUTOMÁTICO DE BRAÇO. MONITOR AVANÇADO REALIZA LEITURAS DE PRESSÃO SISTÓLICA, DIASTÚLICA, E DE PULSO. POSSUI MEMÓRIA PARA 30 LEITURAS DETECTA ARRITMIA CARDÍACA E POSSUI INDICADOR DE HIPERTENSÃO. O MONITOR DETECTA BATIMENTOS CARDIACOS IRREGULARES. DETECTA ARRITMIA CARDÍACA .5 ANOS DE GARANTIA, POSSUI GARANTIA POR DEFEITOS POR MATERIAIS DE FABRICAÇÃO QUE APAREÇAM A PARTIR DA DATA DA COMPRA. TECNOLOGIA QUE INFLA O MANGUITO DE ACORDO COM CADA PESSOA, PROPORCIONANDO MUITO MAIS CONFORTO E PRECISÃO NOS RESULTADOS, INDICADOR DE HIPERTENSÃO: O MONITOR ALERTA QUANDO A PRESSÃO ARTERIAL ULTRAPASSA OS PADRÕES ESTABELECIDOS PELAS ORGANIZAÇÕES INTERNACIONAIS DÊ CARDIOLOGIA. INDICADOR DE HIPERTENSÃO 30MEMÔRIAS. ARMAZENA OS RESULTADOS DAS ÚLTIMAS 30 MEDIÇÕES, PERMITINDO AO USUÁRIO ACOMPANHAR E MONITORAR AS MUDANÇAS DA SUA PRESSÃO ARTERIAL. CONTEÚDO DA EMBALAGEM 1 MONITOR 1 BRAÇADEIRA QUE SE ADAPTA AO CONTORNO DO BRAÇO (PARA BRAÇOS DE 22 CM A 32 CM DE CIRCUNFERÊNCIA ) 1 MANUAL DE INSTRUÇÕES 1 ESTOJO DE ARMAZENAMENTO 4 PILHAS AAA.</t>
-  </si>
-  <si>
-    <t>ESPELHO, FORMATO RETANGULAR MEDINDO 70X100CM, INDICADO PARA BANHEIROS. FIXAÇÃO NA PAREDE COM PRESILHA TIPO ALHETA. TONALIDADE DA MOLDURA ESPELHADA. PESO APROXIMADO DE 7KG.</t>
-  </si>
-  <si>
-    <t>ESTANTE PARA PARTITURA. REGULAGEM DE INCLINAÇÃO EM 2 ESTÃGIOS; ALTURA MÁXIMA 1,20 METROS; DUAS PRESILHAS PARA FOLHAS; PÉS DE BORRACHA ANTI-DERRAPANTE; PINTURA ELETROSTÁTICA PRETA,</t>
-  </si>
-  <si>
-    <t>ESTANTE QUATRO CUBOS ORGANIZADOR. COM QUATRO CUBOS GRANDES QUE SE ENCAIXAM. FABRICADA EM MDF OU MADEIRA DE REFLORESTAMENTO, COR NATURAL COM CAMADA DE RESINA ATÔXICA PARA PROTEÇÃO. MEDIDAS APROXIMADAS: ALTURA 66,5 CM X COMPRIMENTO: 71,5 CM X PROFUNDIDADE: 47 CM.</t>
-  </si>
-  <si>
-    <t>COIFA MAIS EXAUSTOR PARA RESTAURANTE: KIT TODO FABRICADO EM AÇO INOX 430 ESCOVADO. COMPOSTO POR: UMA COIFA PIRAMIDAL PARA INSTALAÇÃO NO TETO, MEDINDO NO MiNIMO 1,20X 1,80 MT. COM SISTEMA DE PRECIPITAÇÃO E ARMAZENAMENTO COM FILTRO INERCIAL EM PLACAS DE ALUMÍNIO EXPANDIDO. TUBULAÇÃO PARA LIGAÇÃO ENTRE COIFA E EXAUSTOR.. UM CHAPÉU. UM EXAUSTOR DE 6 PÁS EM NYLON INJETADO COM REFORÇO DE FIBRA DE VIDRO, GABINETE ZINCADO. POTÊNCIA: 3/4 CV. 220 V. RPM: MiNIMO 1500. DIÂMETRO MÍNIMO: 60 CM. GARANTIA MÍNIMA DO KIT DE 12 MESES. OBS: O KIT DEVE SER ENTREGUE INSTALADO.</t>
-  </si>
-  <si>
-    <t>COOKTOP DE INDUÇÃO 2 BOCAS,^ ÊLÍTRICO. TOUCH SCREEN, 127 VOLTS, COR PRETA, FUNÇÃO TIMER DE ATÉ 99 MINUTOS, MATERIAL VIDRO CERÂMICO.</t>
-  </si>
-  <si>
-    <t>FONE DE OUVIDO HEADSET COM DRIVER DE 40MM PARA SOM CLARO £ POTENTE, EARPADS EM MALHA ESPORTIVA RESPIRÃVEL, SENSIBILIDADE DE 115 ± 3dB S.P.l. @ IKHz. FAIXA DE FREQUÊNCIA DE 20Hz A 20.000Hz, IMPEDÃNCIA DE 16 OHMS ± 15%. ILUMINAÇÃO LED AZUL, FUNÇÃO DE SILENCIAR MICROFONE INTEGRADA NA CONCHA ESQUERDA. CONEXÃO VIA BLUETOOTH, USB 2.4GHz E USB TIPO-C. BATERÍA DE 350mAh COM AUTONOMIA DE ATÉ 24 HORAS NO BLUETOOTH E ATÉ 18 HORAS NO USB 2.4GHz.</t>
-  </si>
-  <si>
-    <t>FRAGMENTADORA DE PAPEL VOLTAGEM 127V, CAPACIDADE DE BANDEJA PARA ATÉ 350 FOLHAS A4 NO MODO AUTOMÃTICO OU ATÉ 10 FOLHAS NO MODO MANUAL, CESTO DE 53 LITROS, CORTE EM MICROPARTÍCULAS DE 40 X 1,2MM (NÍVEL DE SEGURANÇA P4). BLOQUEIO DE ACESSO À BANDEJA POR SENHA, SENSOR DE CESTO CHEIO, INDICADOR DE SOBRECARGA, RODÍZIOS PARA MOBILIDADE, REVERSO MANUAL, USO CONTÍNUO DE ATÉ 240 MINUTOS COM 45 MINUTOS DE DESCANSO, ABERTURA PARA INSERÇÃO DE PAPEL DE 230MM, PESO DE 23,3KG.</t>
-  </si>
-  <si>
-    <t>FREEZER VERTICAL INVERTER UMA PORTA. NA COR BRANCO. COM ACABAMENTO EM AÇO PINTADO E PUXADOR EMBUTIDO. FUNCIONA COM FREQUÊNCIA DE 60 HZ E POSSUI GARANTIA DE 1 ANO. CLASSIFICAÇÃO ENERGÉTICA A++, CAPACIDADE MÍNIMA DE 230 LITROS, UTILIZA GÁS ECOLÓGICO R600A. O COMPRESSOR É DO TIPO INVERTER</t>
-  </si>
-  <si>
-    <t>FRITADEIRA PROFISSIONAL EM AÇO INOX COM 1 CUBA DE 5 LITROS A GÁS GLP BAIXA PRESSÃO. POSSUI ESTRUTURA RESISTENTE EM AÇO INOX 430, OFERECENDO DURABILIDADE E FÁCIL HIGIENIZAÇÃO. A CUBA É ESTAMPADA EM AÇO INOX NO MODELO GASTRONORME DE 1/2, DESENVOLVIDA ESPECIFICAMENE PARA ÓLEO, COM ORIFÍCIO CENTRAL PARA FACILITAR O USO. EQUIPADA COM MANIPULADOR DE REGULAGEM EM 3 POSIÇÕES, GARANTE MAIOR CONTROLE NA OPERAÇÃO. O CONSUMO DE GÁS É DE 0,340 KG/H, SENDO ECONÔMICA E EFICIENTE. ACOMPANHA CESTO PARA FRITURAS, PROPORCIONANDO MAIS PRATICIDADE NO DIA A DIA. DIMENSÕES DE 28 CM DE ALTURA, 32,5 CM DE LARGURA E 38,5 CM DE PROFUNDIDADE, COM PESO DE APENAS 3 KG.</t>
-  </si>
-  <si>
-    <t>FURADEIRA PARAFUSADEIRA IMPACTO 1/2" 20V COM 2 BATERIAS ÍON-LÍTIO COM CARACTERÍSTICAS MÍNIMAS; 20V MAX TORQUE MÁXIMO: 42 NM; VELOCIDADE SEM CARGA 0-450 / 0-1.500 RPM; IMPACTOS POR MINUTO 0-7.650 / 0-25.500 IPM; MANDRIL DE APERTO RÁPIDO 1/2" (13 MM); FUNÇÃO (MODO) PARAFUSADEIRA, FURADEIRA COM IMPACTO;POSIÇÕES DE TORQUE: 15; VELOCIDADES MECÂNICAS: 2; CAPACIDADE MADEIRA 0 30 MM; CAPACIDADE AÇO 0 13 MM; CAPACIDADE ALVENARIA 0 13 MM; LED; PESO: 1.5 KG; INCLUI 2 BATERIAS 20V MAX* 1,3 AH 1 CARREGADOR BIVOLT; MALETA PLÁSTICA;</t>
-  </si>
-  <si>
-    <t>GELADEIRA FROST FREE DUPLEX COM CAPACIDADE TOTAL DE 451 LITROS, SENDO 353 LITROS NO REFRIGERADOR E 98 LITROS NO FREEZER. POSSUI SISTEMA FROST FREE. PAINEL DIGITAL, CONTROLE AUTOMÁTICO DE TEMPERATURA, PRATELEIRA FLEX E PRATELEIRA TRiFASE NO FREEZER. ILUMINAÇÃO EM LED E FILTRO ANTIODOR, DUAS PORTAS. CONSUMO DE 683 KWH/ANO. CLASSIFICAÇÃO ENERGÉTICA A+. TENSÃO 110V. GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>GLICOSÍMETRO PARA MEDIÇÃO DE NÍVEIS DE GLICOSE SANGUÍNEA, ELETROQUÍMICO OU COLORIMÉTRiCO, COM FAIXA DE LEITURA 10 A 600 MG/DL, MEMÓRIA MÍNIMA PARA 100 RESULTADOS, TEMPO DE LEITURA APROXIMADO DE 20S, ACOMPANHADO DE ESTOJO. COMPATÍVEL COM AS TIRAS REAGENTES ACCU CHECK ACTIVE. EMBALAGEM COM DADOS DE IDENTIFICAÇÃO DO PRODUTO, E MARCA DO PRODUTO, MEMÓRIA MÍNIMA DE 100 RESULTADOS COM DATA E HORA, CALIBRAÇÃO AUTOMÁTICA. DEVERÁ SER APRESENTADO O CERTIFICADO DE GARANTIA MÍNIMA DE 2 ANOS A CONTAR DA DATA DE ACEITAÇÃO DO EQUIPAMENTO. DEVERÁ ACOMPANHAR O EQUIPAMENTO O MANUAL DE OPERAÇÃO E SERVIÇO EM PORTUGUÊS DO BRASIL. REGISTRO NA ANVISA.</t>
-  </si>
-  <si>
-    <t>HD EXTERNO COM CAPACIDADE DE 1TB, INTERFACE USB 3.0 E USB 2.0, TAXA DE TRANSFERÊNCIA DE ATÉ 5 GBIT/S NO USB 3.0 E ATÉ 480 MBIT/S NO USB 2.0. DESIGN COMPACTO NA COR PRETO FOSCO, MEDINDO 78MM DE LARGURA, 109MM DE COMPRIMENTO E 19,5MM DE ALTURA. PESO DE 149G.</t>
-  </si>
-  <si>
-    <t>LAVADORA DE ALTA PRESSÃO PROFISSIONAL COM TENSÃO 220V, VAZÃO DE ÁGUA DE 500 LITROS POR HORA, PRESSÃO DE TRABALHO DE 2176 PSl, CABO ELÉTRICO DE 5 METROS, PESO COM ACESSÓRIOS DE 22,6 KG E PESO COM EMBALAGEM DE 23,1 KG. POSSUI DESIGN NA COR ANTRACITE E MEDIDAS DE 530MM DE COMPRIMENTO. 300MM DE LARGURA E 840MM DE ALTURA.</t>
-  </si>
-  <si>
-    <t>LONGARINA DIRETOR 3 LUGARES COM BRAÇOS, CONFECCIONADA EM TECIDO SINTÉTICO CORINO, POSSUI ASSENTO E ENCOSTO EM MADEIRA COMPENSADA COM ESPUMA INJETADA DE DENSIDADE MÉDIA 55KG/M", GARANTINDO CONFORTO E DURABILIDADE. OS BRAÇOS SÃO FIXOS EM POLIPROPILENO E A BASE É FABRICADA EM TUBO DE AÇO CARBONO 50X30, PROPORCIONANDO MAIOR RESISTÊNCIA. MEDIDAS DO ASSENTO: 49CM DE LARGURA X 48CM DE PROFUNDIDADE X 7CM DE ESPESSURA. ENCOSTO COM 46CM DE LARGURA X 48CM DE ALTURA X 7CM DE ESPESSURA. ALTURA DO ASSENTO ATÉ O CHÃO É DE 45CM, DOS BRAÇOS 68CM E ALTURA TOTAL 91CM. DIMENSÕES TOTAIS DO PRODUTO MONTADO; 187CM DE LARGURA X 60CM DE PROFUNDIDADE X 91CM DE ALTURA. SUPORTA ATÉ 120KG POR LUGAR, PESANDO 32KG E POSSUI GARANTIA DE 3 MESES.</t>
-  </si>
-  <si>
-    <t>LOUSA INTERATIVA DIGITAL COM DIMENSÃO DE 82 POLEGADAS, POSSUI TECNOLOGIA TOUCH INFRAVERMELHO COM SUPORTE PARA ATÉ 10 TOQUES SIMULTÂNEOS. MEDIDAS TOTAIS DE 1840MM DE LARGURA X 1320MM DE ALTURA X 31MM DE PROFUNDIDADE, COM ÁREA ATIVA DE 1740MM X 1250MM (80 POLEGADAS) E ASPECTO 4:3. OFERECE RESOLUÇÃO DE TOQUE DE 32767 X 32767, PRECISÃO DE 1MM E VELOCIDADE DE RASTRO DE 8M/S. A VELOCIDADE DE TRANSMISSÃO É DE 12M/S, VELOCIDADE DO CURSOR 180 PPS E TEMPO DE RESPOSTA DE 10MS NO PRIMEIRO CLIQUE E 3MS NOS DEMAIS, PERMITE INTERAÇÃO ATRAVÉS DE DEDOS OU MARCADORES COM PONTA OPACA. COMPATÍVEL COM INTERFACE USB 2.0 E 3.0, E SUPORTA SISTEMAS OPERACIONAIS WINDOWS (VISTA, 7, 8, 10), MAC, LINUX E ANDROID. O PRODUTO PESA 15KG E A EMBALAGEM 18,6KG, COM DIMENSÕES DE 1940MM X 1420MM X 100MM.</t>
-  </si>
-  <si>
-    <t>MESA ESCRIVANINHA PARA COMPUTADOR COM PRATELEIRA RETRÁTIL, FABRICADA EM MDF E MDP DE 15MM, COM ESTRUTURA RESISTENTE E DESIGN FUNCIONAL. POSSUI 3 PRATELEIRAS PARA ORGANIZAÇÃO E SUPORTA ATÉ 10KG. SUAS DIMENSÕES SÃO 69CM DE COMPRIMENTO, 40CM DE PROFUNDIDADE E 74,5CM DE ALTURA, COM PESO TOTAL DE 13,1KG.</t>
-  </si>
-  <si>
-    <t>MESA DE REUNIÃO PARA ESCRITÓRIO, TAMPO OVAL DE 2000MM X 900MM, ALTURA DE 740MM, TAMPO EM MDP 25MM COM REVESTIMENTO MELAMÍNICO, BORDAS COM FITA RETA DE 2MM, SAIA EM MDP 15MM COM REVESTIMENTO MELAMiNICO, ESTRUTURA METÁLICA COM CALHAS PARA PASSAGEM DE FIOS, SAPATAS NIVELADORAS, FIXAÇÃO POR PARAFUSOS E RODOFIX. CAPACIDADE PARA 8 LUGARES.</t>
-  </si>
-  <si>
-    <t>MESA REDONDA DESMONTÁVEL, TAMANHO 110X110 CM, MODELO BISTRÔ GIGANTE, MULTIUSO PARA ÁREAS DE LAZER, PÉS DESMONTÁVEIS</t>
-  </si>
-  <si>
-    <t>MESA QUADRADA DESMONTÁVEL PLÁSTICA MEDINDO 80X80 CM ALTURA DE 74 CM PESANDO 5.8 KG, MULTIUSO PARA ÁREAS DE LAZER, COM PÉS DESMONTÁVEIS</t>
-  </si>
-  <si>
-    <t>MESA DE TÊNIS DE MESA DOBRÁVEL; COM SUPORTE PARA REDE E MESA TÊNIS DE MESA PiNG PONG; EM MDP; COM MEDIDAS OFICIAIS, QUE ATENDEM AOS PADROES DA ITTF {INTERNATIONAL TABLE TENNIS FEDERATION). DESCRIÇÃO: ACABAMENTO EM PRIMER (TINTA) AZUL COM LINHAS DEMARCATÓRIAS BRANCAS; PÉS DE MADEIRA MACIÇA DOBRÁVEIS; TAMPO EM MDP COM 18 MM DE ESPESSURA. INFORMAÇÕES TÉCNICAS - PESO: 70 KG.</t>
-  </si>
-  <si>
-    <t>MESA INDUSTRIAL EM AÇO INOX 100% INOXIDÁVEL, COM ESPELHO FRONTÂO DE 10 CM, DUAS PRATELEIRAS REFORÇADAS, PÉS AJUSTÁVEIS PARA MAIOR SEGURANÇA E ESTABILIDADE, MEDIDA MINIMA DE 150 CM DE COMPRIMENTO, 60 CM DE LARGURA E 80 CM DE ALTURA.</t>
-  </si>
-  <si>
-    <t>MICROFONE DE MESA CONDENSADOR COM CONEXÃO USB 2.0, RESOLUÇÃO DE 16 BITS / 48 KHZ, PADRÃO POLAR CARDIOIDE, RESPOSTA DE FREQUÊNCIA DE 20 HZ A 20 KHZ, PESO DE 400 G, DIMENSÕES DE 15 CM X 8 CM X 8 CM, SUPORTE AJUSTÃVEL E FILTRO ANTI-PUFF.</t>
-  </si>
-  <si>
-    <t>MICROFONE SEM FIO COM FREQUÊNCIA 686.1MHZ, MODULAÇÃO FM, DESVIO MÁXIMO ±75KHZ, EMISSÃO SIMULADA 40DB, CONSUMO DE CORRENTE 100MA, ALIMENTAÇÃO 3V COM 2 PILHAS AA, PESO 0,8KG. FAIXA DE FREQUÊNCIA 614~806MHZ, ESTABILIDADE DE FREQUÊNCIA 0.005%, SAlDA DE RF -lOODBM, IMAGEM DE REJEIÇÃO ESPELHADA 45DB, SINAL RUÍDO 95DB, DISTORÇÃO 0.5%, NÍVEL DE SAÍDA DE ÁUDIO 1V - 10K, ALIMENTAÇÃO DC12V 500MA.</t>
-  </si>
-  <si>
-    <t>KIT MOTOR PARA PORTÃO DESLIZANTE ATÉ 600KG 1/4 AUTOMÁTICO COM ABERTURA RÁPIDA, ACOMPANHA 01 MOTOR, 01 PLACA ELETRÔNICA, 02 CONTROLES, 02 SUPORTES PARA CONTROLE, 02 SENSORES HALL (FIM DE CURSO), 01 CAPACÍTOR E 02 CHAVES PARA DESTRAVAMENTO EM CASO DE FALTA DE ENERGIA.</t>
-  </si>
-  <si>
-    <t>MOUSE SEM FIO STANDARD USB 1200DPI COM 3 BOTÕES, DESIGN ERGONÔMICO NA COR PRETO, ALIMENTAÇÃO POR 1 PILHA AA COM DURAÇÃO DE ATÉ 3 MESES, CONEXÃO SEM FIO VIA USB, COMPATÍVEL COM WINDOWS E MACOS, VELOCIDADE DE 1200 DPI, PESO DE 75G, MEDINDO 5,8CM DE LARGURA, 3CM DE ALTURA E 9,7CM DE COMPRIMENTO.</t>
-  </si>
-  <si>
-    <t>OXÍMETRO DIGITAL DE PULSO PORTÁTIL DE DEDO COM VISOR EM TECNOLOGIA LED DE ALTO CONTRASTE, INFORMA SATURAÇÃO SP02 E FREQUÊNCIA CARDÍACA, ACOMPANHA CAPA PROTETORA EM SILICONE E ESTOJO PARA ARMAZENAMENTO, GARANTIA DE 1 ANO.</t>
-  </si>
-  <si>
-    <t>PROCESSADOR DE ALIMENTO INDUSTRIAL CUTTER 4 LITROS EM INOX, MOTOR 0,5CV. ROTAÇÃO 1650 RPM, CAPACIDADE 4 LITROS, CONSUMO 0,37 KW/H, PESO 10,5KG, LÂMINA EM AÇO INOX, TAMPA EM PLÁSTICO ATÓXICO, COPO EM AÇO INOX 306, GABINETE EM AÇO INOX 432, BASE PLÁSTICA, NORMA DE SEGURANÇA NR12.</t>
-  </si>
-  <si>
-    <t>PROJETOR PORTÁTIL, RESOLUÇÃO NATIVA WXGA 1280X800 PIXELS, COMPATÍVEL COM ATÉ 4K, PROPORÇÃO 16:10, BRILHO DE 3.000 LÜMENS EM CORES E EM BRANCO, CONTRASTE DE ATÉ 350:1, REPRODUÇÃO DE ATÉ 16,77 MILHÕES DE CORES, FONTE DE ILUMINAÇÃO LÂMPADA 188W UHE COM VIDA ÜTIL DE ATÉ 6.000 HORAS NO MODO NORMAL E ATÉ 12.000 HORAS NO MODO ECO, CORREÇÃO DE KEYSTONE VERTICAL E HORIZONTAL DE ATÉ +/-30 GRAUS, TAMANHO DA IMAGEM DE 25 A 378 POLEGADAS, ZOOM DIGITAL DE 1.0 A 1.35, THROW RATIO DE 1.27 A 1.71, ALTO-FALANTE MONO DE 5W. CONECTIVIDADE COM 1 PORTA HDMI, 1 USB TIPO A E 1 USB TIPO B, CONSUMO DE 284W NO MODO NORMAL E 223W NO MODO ECO, FUNCIONAMENTO ENTRE 5“C E 40°C, RUÍDO DE 38DB NO MODO NORMAL E 29DB NO MODO ECO, DIMENSÕES DE 295X82X211MM (SEM PÉS), PESO DE 2,4KG, COR BRANCA.</t>
+    <t>ANDADOR ADULTO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>APRESENTADOR SEM FIO PARA SLIDES - CONFORME TERMO DE REFERÊNCIA</t>
+  </si>
+  <si>
+    <t>ARMÁRIO DE AÇO 1,20 X 1,98 X 0,45 CM, COM 2 PORTAS DE ABRIR.-PORTAS E BANDEJAS FABRICADAS EM CHAPAS 24" ,.- LATERAIS FABRICADAS EM CHAPAS DE 22".- BANDEJAS INTERNAS REGULÁVEIS NOS SISTEMAS DE ENCAIXA.- PORTAS COM MAÇANETAS CROMADAS E FECHADURAS EMBUTIDAS.- SISTEMA DE TRAVAMENTO COM VARETAS SUPERIOR E INFERIOR.-PINTURA ELETROSTÁTICA COM SECAGEM EM ESTUFAS A TEMPERATURA DE 120º, NA COR CINZA</t>
+  </si>
+  <si>
+    <t>ARMÁRIO ALTO C/ 03 PORTAS DE ABRIR, CONFEC. EM MDP 18MM P/ AS LATERAIS, FUNDO, PORTAS E PRATELEIRAS, C/ 05 PRATELEIRAS INTERNA E CHAVE INDIVIDUAL. TAMPO EM MDP 25MM DE ESPESSURA. ACAB. EM FITA RETA E PVC DE 2MM NA MESMA COR DO IMÓVEL. ACAB. EM PAU MARFIN. BASE EM TUDO DE AÇO 30X50 MM PINTADO EM EPÓXI NA COR PRETA. SAPATAS REGULADORAS DE NIVEL. MEDIDAS 2100X1200X450MM</t>
+  </si>
+  <si>
+    <t>ASSENTO ELEVAÇÃO CRIANÇA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>BAIA PARA COMPUTADOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>BUFFET REFRIGERADO COM 06 CUBAS: CONSERVAÇÃO DE ALIMENTOS RESFRIADOS, SALADAS, FRUTAS, SOBREMESAS, FRIOS, ETC./ CONSERVAÇÃO DE ALIMENTOS ATRAVÉS DE PLACAS DE GELO-X (UMA POR CUBA)./ EQUIPAMENTO DE ACORDO COM A PORTARIA 371/09 DO INMETRO./ CORPO E BANHO-MARIA EM AÇO INOX AISI 430./ TAMPAS DAS CUBAS COM PEGADOR ESTAMPADO EM AÇO INOX./ ESTRUTURA TUBULAR Ø 1.1/2\\" CURVADO EM MÁQUINA ESPECIAL COM ESTRUTURA CROMADA./ CUBAS DE ACORDO COM O PADRÃO MUNDIAL GASTRONORM, DE 1/2 E 1/1./ EQUIPAMENTO COM RODÍZIOS COM TRAVA PARA FACILITAR O TRANSPORTE. CAPACIDADE: 06 CUBAS 1/2 DE 325X265X60 MM. DIMENSÕES: ALTURA: 1290 MM./ LARGURA: 680 MM./ PROFUNDIDADE: 1110 MM./ PESO APROX: 50 KG. MEDIDAS DAS CUBAS: CUBA</t>
+  </si>
+  <si>
+    <t>BATEDEIRA PLANETÁRIA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>BENGALA IDOSO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA</t>
+  </si>
+  <si>
+    <t>CADEIRA BEBE CONFORTO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>CADEIRA DE BANHO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>CADEIRA PLÁSTICA: SEM BRAÇO, TIPO BISTRÔ, BRANCA, EMPILHÁVEL, PRODUTO CERTIFICADO PELO INMETRO, USO IRRESTRITO (AMBIENTE INTERNO E EXTERNO), CAPACIDADE: 182 KG, MATERIAL: POLIPROPILENO COM ANTI-UV. DIMENSÕES APROXIMADAS: LARG. 39,5 CM - ALT. 87 CM.</t>
+  </si>
+  <si>
+    <t>CADEIRA DE SEGURANÇA INFANTIL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA</t>
+  </si>
+  <si>
+    <t>CADEIRA FIXA ESTOFADA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CAIXA DE SOM AMPLIFICADA COM POTÊNCIA DE 1300W; CONEXÕES BLUETOOTH, USB, ENTRADA PARA MICROFONE E GUITARRA; COM FUNÇÃO RÁDIO AM/FM.</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CAIXA DE SOM PRETA, USB, PARA PC, COM ENTRADA AUXILIAR P/ FONE DE OUVIDO.</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CAIXA DE SOM BLUETOOTH COM POTÊNCIA DE 20W RMS; RESPOSTA DE FREQUÊNCIA DE 65HZ A 20KHZ; VERSÃO BLUETOOTH 5.1; PERFIS A2DP 1.3 E AVRCP 1.6; TEMPO DE CARGA DE 3 HORAS E ATÉ 10 HORAS DE REPRODUÇÃO; DIMENSÕES DE 17,5 X 6,8 X 7CM; PESO DE 0,52KG; À PROVA DE RESPINGOS D'ÁGUA; POSSUI BATERIA RECARREGÁVEL E CONEXÃO WIRELESS.</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CAIXA DE SOM BLUETOOTH COM POTÊNCIA DE 4,2W RMS; RESPOSTA DE FREQUÊNCIA DE 110HZ A 20KHZ; VERSÃO BLUETOOTH 5.1; PERFIS A2DP 1.3 E AVRCP 1.6; TEMPO DE CARGA DE 2,5 HORAS E ATÉ 5 HORAS DE REPRODUÇÃO; CLASSIFICAÇÃO IP67 À PROVA DE RESPINGOS D'ÁGUA E POEIRA; DIMENSÕES DE 8,75 X 7,5 X 4,13CM; PESO DE 0,209KG; POSSUI BATERIA RECARREGÁVEL E CONEXÃO WIRELESS.</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM ATIVA E PASSIVA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CAIXA DE SOM ATIVA E PASSIVA COM ALTO-FALANTE DE 12" E POTÊNCIA TOTAL DE 500W; CONEXÕES BLUETOOTH, USB, CARTÃO SD E RÁDIO FM; CAIXA ATIVA COM 250W RMS EM 4 OHMS E CAIXA PASSIVA COM 250W; FREQUÊNCIA DE 20HZ A 20KHZ (ATIVA) E 60HZ A 18KHZ (PASSIVA); ENTRADAS PARA MICROFONE E LINE (P10/XLR), SAÍDA PARA CAIXA PASSIVA E SAÍDA LINE BALANCEADA; EQUALIZAÇÃO ATIVA DE 3 VIAS; FUNCIONAMENTO BIVOLT COM SELETOR; SUPORTE PARA PEDESTAL, ALÇA PARA TRANSPORTE E TELA METÁLICA DE PROTEÇÃO; ACOMPANHA CONTROLE REMOTO; DIMENSÕES DE 58 X 40 X 40CM CADA UNIDADE.</t>
+  </si>
+  <si>
+    <t>BELICHE CONFECCIONADA EM TUBO DE AÇO 60X60MM PARA AS ESTRUTURAS VERTICAIS, LONGARINAS TRANSVERSAIS EM TUBO DE AÇO 40X80MM, ESTRADEM MDF DE 15MM INTEIRIÇO COM FURAÇÃO PARA VENTILAÇÃO, SAPATAS NIVELADORAS DE SOLO, PINTURA ELETROSTÁTICA A PÓ EPOXI NA COR PRETA, MEDIDAS 2000X1000X1500MM. COM COLCHÃO DENSIDADE 33 DE 98 CM DE LARGURA PARA ATÉ 150 KG</t>
+  </si>
+  <si>
+    <t>CAMERA DIGITAL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CÂMERA DIGITAL COM SENSOR APS-C DE 24,1 MEGAPIXELS; VÍDEO EM FULL HD 1080P A 24P, 25P E 30P; DISPARO CONTÍNUO DE 3 FPS; TELA LCD DE 3.0"; PROCESSADOR DE IMAGEM DIGIC 4+; SENSIBILIDADE ISO DE 100 A 6400; VELOCIDADE DO OBTURADOR DE 30 SEGUNDOS A 1/4000 SEG.; SISTEMA DE FOCO COM 9 PONTOS, SENDO O CENTRAL DO TIPO CRUZADO; FLASH COM MODOS AUTOMÁTICO, MANUAL E X-SYNCRO; NÃO POSSUI ENTRADA PARA MICROFONE EXTERNO; DIMENSÕES DE 129,0 X 101,3 X 77,6MM E PESO DE 475G (SOMENTE CORPO).</t>
+  </si>
+  <si>
+    <t>CAMPAINHA SEM FIO. A PROVA D’ÁGUA. DISTÂNCIA DE COBERTURA: 100 METROS (MÍNIMO). TENSÃO: 127 VOLTS.</t>
+  </si>
+  <si>
+    <t>CILINDRO ELETRICO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - CILINDRO LAMINADOR INDUSTRIAL ELÉTRICO PARA MASSA DE PÃO, PASTEL E PIZZA COM CILINDROS EM AÇO INOX DE 40CM; ESPESSURA REGULÁVEL DE 1 A 10MM COM 2 MANÍPULOS; BANDEJAS EM AÇO INOX; CARENAGEM EM AÇO CARBONO PINTADO COM EPÓXI BRANCA; MOTOR DE 1/2 CV; RPM DE 66; BIVOLT; DIMENSÕES DE 47 X 47 X 66CM; PESO DE 32KG.</t>
+  </si>
+  <si>
+    <t>CLIMATIZADOR EVAPORATIVO INDUSTRIAL PORTÁTIL , TENSÃO: 220V, COM CONTROLE REMOTO, MOTOR EM ALUMÍNIO, 3 VELOCIDADES, VAZÃO MÍNIMA: 30.000 M³H, CONSUMO DE ENERGIA MÉDIO: 1,53 KWH DIMENSÕES: 1730 X 1120 X 680 MM (ALP), PESO MÉDIO: 80 KG, COM 04 RODAS.</t>
+  </si>
+  <si>
+    <t>COLCHÃO HOSPITALAR D33, PRODUZIDO COM ESPUMA DE POLIOL VEGETAL, REVESTIDO COM FORRAÇÃO IMPERMEÁVEL NA COR AZUL, COM SISTEMA DE RESPIRO PARA VENTILAÇÃO, COM TRATAMENTO ANTIÁCARO E ANTIFUNGO, SUPORTE DE PESO: 100KG, CERTIFICADO PELO INMETRO*</t>
+  </si>
+  <si>
+    <t>COLCHONETE HOSPITALAR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - COLCHONETE HOSPITALAR MODELO CASCA DE OVO COM DENSIDADE D23; COR BEGE; ALTURA DE 5CM; MEDIDAS SOLTEIRO 88 X 188 X 5CM; GARANTIA DE 12 MESES.</t>
+  </si>
+  <si>
+    <t>COMPRESSOR DE BALÃO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - COMPRESSOR INFLADOR DE BALÕES COM POTÊNCIA DE 1000W; TENSÃO 110V; CABO DE ENERGIA DE 2 METROS; DUAS SAÍDAS DE AR COM BICOS FIXOS E ACOMPANHA 1 BICO VERDE PARA BALÕES 260; ESTRUTURA EM PLÁSTICO ABS; MEDIDAS DE 20CM (ALTURA) X 15CM (DIÂMETRO); PESO DE 1,3KG; DIMENSÕES DA EMBALAGEM 23 X 18 X 17CM; GARANTIA DE 6 MESES.</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE MONITORAMENTO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - KIT COM 10 CÂMERAS INTELBRAS FULL COLOR 2MP 1080P; DVR MHDX 1016-C COM 16 CANAIS + 2 IP; HD DE 1TB; COMPATÍVEL COM AS TECNOLOGIAS HDCVI, HDTVI, AHD, CVBS E IP; COMPRESSÃO DE VÍDEO H.265+, H.265, H.264+, H.264; SAÍDAS HDMI E VGA; ACESSO REMOTO PELOS APLICATIVOS INTELBRAS ISIC E GUARDIAN; FONTE 12V 15A; 1 ROLO DE CABO COAXIAL 100 METROS 4MM 80% MALHA; 20 CONECTORES BNC DE MOLA; 10 CONECTORES P4 MACHO; 10 CAIXAS DE SOBREPOR PARA PROTEÇÃO DE CONECTORES; CÂMERAS COM VISÃO NOTURNA COLORIDA FULL COLOR; SENSOR COM ALTA SENSIBILIDADE; USO INTERNO E EXTERNO; SUPORTA HD DE ATÉ 18TB; GRAVAÇÃO EM 1080P LITE/720P/960H/D1/CIF; DETECÇÃO DE MOVIMENTO, PERDA DE VÍDEO, MASCARAMENTO E DETECÇÃO INTELIGENTE DE PESSOAS E VEÍCULOS.</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE RAMPAS PIKLER. FABRICADO EM MADEIRA MACIÇA DE REFLORESTAMENTO. CANTOS ARREDONDADOS. COMPOSTO POR DUAS RAMPAS LISAS FECHADAS, UMA RAMPA VAZADA E UMA BASE PLANA. REVESTIDO POR RESINA ATÓXICA. MEDIDAS MÍNIMAS DAS RAMPAS FECHADAS: (A X L X C): 15 CM X 60 CM X 45 CM. MEDIDAS MÍNIMAS DA RAMPA VAZADA ( A X L X C): 15 CM X 60 CM X 45 CM. BASE PLANA: (A X L X C): 15 CM X 60 X CM X 45 CM. SEGUEM FOTOS DO PRODUTO EM ANEXO.</t>
+  </si>
+  <si>
+    <t>CUBO DUPLO PIKLER. FABRICADO EM MADEIRA MACIÇA DE REFLORESTAMENTO. CANTOS ARREDONDADOS. REVESTIDO COM RESINA ATÓXICA. MEDIDAS MÍNIMAS: C 85 CM X L 40 CM X A 40 CM. SEGUEM FOTOS DO PRODUTO EM ANEXO.</t>
+  </si>
+  <si>
+    <t>MONITOR DE PRESSÃO ARTERIAL AUTOMÁTICO DE BRAÇO. MONITOR AVANÇADO REALIZA LEITURAS DE PRESSÃO SISTÓLICA, DIASTÚLICA, E DE PULSO. POSSUI MEMÓRIA PARA 30 LEITURAS DETECTA ARRITMIA CARDÍACA E POSSUI INDICADOR DE HIPERTENSÃO. O MONITOR DETECTA BATIMENTOS CARDÍACOS IRREGULARES. DETECTA ARRITMIA CARDÍACA .5 ANOS DE GARANTIA, POSSUI GARANTIA POR DEFEITOS POR MATERIAIS DE FABRICAÇÃO QUE APAREÇAM A PARTIR DA DATA DA COMPRA. TECNOLOGIA QUE INFLA O MANGUITO DE ACORDO COM CADA PESSOA, PROPORCIONANDO MUITO MAIS CONFORTO E PRECISÃO NOS RESULTADOS. INDICADOR DE HIPERTENSÃO: O MONITOR ALERTA QUANDO A PRESSÃO ARTERIAL ULTRAPASSA OS PADRÕES ESTABELECIDOS PELAS ORGANIZAÇÕES INTERNACIONAIS DE CARDIOLOGIA. INDICADOR DE HIPERTENSÃO 30MEMÓRIAS. ARMAZENA OS RESULTADOS DAS ÚLTIMAS 30 MEDIÇÕES, PERMITINDO AO USUÁRIO ACOMPANHAR E MONITORAR AS MUDANÇAS DA SUA PRESSÃO ARTERIAL. CONTEÚDO DA EMBALAGEM 1 MONITOR 1 BRAÇADEIRA QUE SE ADAPTA AO CONTORNO DO BRAÇO (PARA BRAÇOS DE 22 CM A 32 CM DE CIRCUNFERÊNCIA ) 1 MANUAL DE INSTRUÇÕES 1 ESTOJO DE ARMAZENAMENTO 4 PILHAS AAA.</t>
+  </si>
+  <si>
+    <t>ESPELHO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - ESPELHO, FORMATO RETANGULAR MEDINDO 70X100CM, INDICADO PARA BANHEIROS. FIXAÇÃO NA PAREDE COM PRESILHA TIPO ALHETA. TONALIDADE DA MOLDURA ESPELHADA. PESO APROXIMADO DE 7KG.</t>
+  </si>
+  <si>
+    <t>ESTANTE PARA PARTITURA. REGULAGEM DE INCLINAÇÃO EM 2 ESTÁGIOS; ALTURA MÁXIMA 1,20 METROS; DUAS PRESILHAS PARA FOLHAS; PÉS DE BORRACHA ANTI-DERRAPANTE; PINTURA ELETROSTÁTICA PRETA.</t>
+  </si>
+  <si>
+    <t>ESTANTE QUATRO CUBOS ORGANIZADOR. COM QUATRO CUBOS GRANDES QUE SE ENCAIXAM. FABRICADA EM MDF OU MADEIRA DE REFLORESTAMENTO, COR NATURAL COM CAMADA DE RESINA ATÓXICA PARA PROTEÇÃO. MEDIDAS APROXIMADAS: ALTURA 66,5 CM X COMPRIMENTO: 71,5 CM X PROFUNDIDADE: 47 CM.</t>
+  </si>
+  <si>
+    <t>COIFA MAIS EXAUSTOR PARA RESTAURANTE: KIT TODO FABRICADO EM AÇO INOX 430 ESCOVADO. COMPOSTO POR: UMA COIFA PIRAMIDAL PARA INSTALAÇÃO NO TETO, MEDINDO NO MÍNIMO 1,20X 1,80 MT. COM SISTEMA DE PRECIPITAÇÃO E ARMAZENAMENTO COM FILTRO INERCIAL EM PLACAS DE ALUMÍNIO EXPANDIDO. TUBULAÇÃO PARA LIGAÇÃO ENTRE COIFA E EXAUSTOR.. UM CHAPÉU. UM EXAUSTOR DE 6 PÁS EM NYLON INJETADO COM REFORÇO DE FIBRA DE VIDRO. GABINETE ZINCADO. POTENCIA: 3/4 CV. 220 V. RPM: MÍNIMO 1500. DIÂMETRO MÍNIMO: 60 CM. GARANTIA MÍNIMA DO KIT DE 12 MESES. OBS: O KIT DEVE SER ENTREGUE INSTALADO.</t>
+  </si>
+  <si>
+    <t>COOKTOP DE INDUÇÃO 2 Bocas, Elétrico, Touch Screen, 127 Volts, cor preta, Função Timer de até 99 minutos, material Vidro Cerâmico.</t>
+  </si>
+  <si>
+    <t>HEADSET TIPO 2 - CONFORME PARECER TÉCNICO I</t>
+  </si>
+  <si>
+    <t>FRAGMENTADORA DE PAPEL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - FRAGMENTADORA DE PAPEL VOLTAGEM 127V, CAPACIDADE DE BANDEJA PARA ATÉ 350 FOLHAS A4 NO MODO AUTOMÁTICO OU ATÉ 10 FOLHAS NO MODO MANUAL, CESTO DE 53 LITROS, CORTE EM MICROPARTÍCULAS DE 40 X 1,2MM (NÍVEL DE SEGURANÇA P4). BLOQUEIO DE ACESSO À BANDEJA POR SENHA, SENSOR DE CESTO CHEIO, INDICADOR DE SOBRECARGA, RODÍZIOS PARA MOBILIDADE, REVERSO MANUAL, USO CONTÍNUO DE ATÉ 240 MINUTOS COM 45 MINUTOS DE DESCANSO, ABERTURA PARA INSERÇÃO DE PAPEL DE 230MM, PESO DE 23,3KG.</t>
+  </si>
+  <si>
+    <t>FREEZER VERTICAL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - FREEZER VERTICAL INVERTER UMA PORTA, NA COR BRANCO, COM ACABAMENTO EM AÇO PINTADO E PUXADOR EMBUTIDO. FUNCIONA COM FREQUÊNCIA DE 60 HZ E POSSUI GARANTIA DE 1 ANO. CLASSIFICAÇÃO ENERGÉTICA A++, CAPACIDADE MÍNIMA DE 230 LITROS, UTILIZA GÁS ECOLÓGICO R600A. O COMPRESSOR É DO TIPO INVERTER</t>
+  </si>
+  <si>
+    <t>FRITADEIRA INDUSTRIAL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - FRITADEIRA PROFISSIONAL EM AÇO INOX COM 1 CUBA DE 5 LITROS A GÁS GLP BAIXA PRESSÃO. POSSUI ESTRUTURA RESISTENTE EM AÇO INOX 430, OFERECENDO DURABILIDADE E FÁCIL HIGIENIZAÇÃO. A CUBA É ESTAMPADA EM AÇO INOX NO MODELO GASTRONORME DE 1/2, DESENVOLVIDA ESPECIFICAMENTE PARA ÓLEO, COM ORIFÍCIO CENTRAL PARA FACILITAR O USO. EQUIPADA COM MANIPULADOR DE REGULAGEM EM 3 POSIÇÕES, GARANTE MAIOR CONTROLE NA OPERAÇÃO. O CONSUMO DE GÁS É DE 0,340 KG/H, SENDO ECONÔMICA E EFICIENTE. ACOMPANHA CESTO PARA FRITURAS, PROPORCIONANDO MAIS PRATICIDADE NO DIA A DIA. DIMENSÕES DE 28 CM DE ALTURA, 32,5 CM DE LARGURA E 38,5 CM DE PROFUNDIDADE, COM PESO DE APENAS 3 KG.</t>
+  </si>
+  <si>
+    <t>FURADEIRA PARAFUSADEIRA IMPACTO 1/2" 20V COM 2 BATERIAS ÍON-LÍTIO COM CARACTERÍSTICAS MÍNIMAS; 20V MAX TORQUE MÁXIMO: 42 NM; VELOCIDADE SEM CARGA 0-450 / 0-1.500 RPM; IMPACTOS POR MINUTO 0-7.650 / 0-25.500 IPM; MANDRIL DE APERTO RÁPIDO 1/2" (13 MM); FUNÇÃO (MODO) PARAFUSADEIRA, FURADEIRA COM IMPACTO;POSIÇÕES DE TORQUE: 15; VELOCIDADES MECÂNICAS: 2; CAPACIDADE MADEIRA Ø 30 MM; CAPACIDADE AÇO Ø 13 MM; CAPACIDADE ALVENARIA Ø 13 MM; LED; PESO: 1,5 KG; INCLUI 2 BATERIAS 20V MAX* 1,3 AH1 CARREGADOR BIVOLT; MALETA PLÁSTICA;</t>
+  </si>
+  <si>
+    <t>GELADEIRA/REFRIGERADOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - GELADEIRA FROST FREE DUPLEX COM CAPACIDADE TOTAL DE 451 LITROS, SENDO 353 LITROS NO REFRIGERADOR E 98 LITROS NO FREEZER. POSSUI SISTEMA FROST FREE, PAINEL DIGITAL, CONTROLE AUTOMÁTICO DE TEMPERATURA, PRATELEIRA FLEX E PRATELEIRA TRIFASE NO FREEZER, ILUMINAÇÃO EM LED E FILTRO ANTIODOR, DUAS PORTAS. CONSUMO DE 683 KWH/ANO, CLASSIFICAÇÃO ENERGÉTICA A+. TENSÃO 110V. GARANTIA DE 12 MESES.</t>
+  </si>
+  <si>
+    <t>GLICOSÍMETRO PARA MEDIÇÃO DE NÍVEIS DE GLICOSE SANGUÍNEA, ELETROQUÍMICO OU COLORIMÉTRICO, COM FAIXA DE LEITURA 10 A 600 MG/DL, MEMÓRIA MÍNIMA PARA 100 RESULTADOS, TEMPO DE LEITURA APROXIMADO DE 20S, ACOMPANHADO DE ESTOJO. COMPATÍVEL COM AS TIRAS REAGENTES ACCU CHECK ACTIVE. EMBALAGEM COM DADOS DE IDENTIFICAÇÃO DO PRODUTO, E MARCA DO PRODUTO, MEMÓRIA MÍNIMA DE 100 RESULTADOS COM DATA E HORA, CALIBRAÇÃO AUTOMÁTICA. DEVERÁ SER APRESENTADO O CERTIFICADO DE GARANTIA MÍNIMA DE 2 ANOS A CONTAR DA DATA DE ACEITAÇÃO DO EQUIPAMENTO. DEVERÁ ACOMPANHAR O EQUIPAMENTO O MANUAL DE OPERAÇÃO E SERVIÇO EM PORTUGUÊS DO BRASIL. REGISTRO NA ANVISA.</t>
+  </si>
+  <si>
+    <t>HD EXTERNO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - HD EXTERNO COM CAPACIDADE DE 1TB, INTERFACE USB 3.0 E USB 2.0, TAXA DE TRANSFERÊNCIA DE ATÉ 5 GBIT/S NO USB 3.0 E ATÉ 480 MBIT/S NO USB 2.0. DESIGN COMPACTO NA COR PRETO FOSCO, MEDINDO 78MM DE LARGURA, 109MM DE COMPRIMENTO E 19,5MM DE ALTURA. PESO DE 149G.</t>
+  </si>
+  <si>
+    <t>LAVADORA ALTA PRESSÃO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - LAVADORA DE ALTA PRESSÃO PROFISSIONAL COM TENSÃO 220V, VAZÃO DE ÁGUA DE 500 LITROS POR HORA, PRESSÃO DE TRABALHO DE 2176 PSI, CABO ELÉTRICO DE 5 METROS, PESO COM ACESSÓRIOS DE 22,6 KG E PESO COM EMBALAGEM DE 23,1 KG. POSSUI DESIGN NA COR ANTRACITE E MEDIDAS DE 530MM DE COMPRIMENTO, 300MM DE LARGURA E 840MM DE ALTURA.</t>
+  </si>
+  <si>
+    <t>LONGARINA ESTOFADA DIRETOR COM BRAÇOS EM POLIPROPILENO 03 LUGARES. COR PRETO. (CONFORME ESPECIFICAÇÃO COMPLETA CONSTANTE NO TERMO DE REFERÊNCIA)</t>
+  </si>
+  <si>
+    <t>LOUSA DE PELÍCULA INTERATIVA DIGITAL - CONFORME O TERMO DE REFERÊNCIA</t>
+  </si>
+  <si>
+    <t>MESA COMPUTADOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA ESCRIVANINHA PARA COMPUTADOR COM PRATELEIRA RETRÁTIL, FABRICADA EM MDF E MDP DE 15MM, COM ESTRUTURA RESISTENTE E DESIGN FUNCIONAL. POSSUI 3 PRATELEIRAS PARA ORGANIZAÇÃO E SUPORTA ATÉ 10KG. SUAS DIMENSÕES SÃO 69CM DE COMPRIMENTO, 40CM DE PROFUNDIDADE E 74,5CM DE ALTURA, COM PESO TOTAL DE 13,1KG.</t>
+  </si>
+  <si>
+    <t>MESA DE REUNIÃO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA DE REUNIÃO PARA ESCRITÓRIO, TAMPO OVAL DE 2000MM X 900MM, ALTURA DE 740MM, TAMPO EM MDP 25MM COM REVESTIMENTO MELAMÍNICO, BORDAS COM FITA RETA DE 2MM, SAIA EM MDP 15MM COM REVESTIMENTO MELAMÍNICO, ESTRUTURA METÁLICA COM CALHAS PARA PASSAGEM DE FIOS, SAPATAS NIVELADORAS, FIXAÇÃO POR PARAFUSOS E RODOFIX. CAPACIDADE PARA 8 LUGARES.</t>
+  </si>
+  <si>
+    <t>MESA DESMONTÁVEL PLÁSTICA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA REDONDA DESMONTÁVEL, TAMANHO 110X110 CM, MODELO BISTRÔ GIGANTE, MULTIUSO PARA ÁREAS DE LAZER, PÉS DESMONTÁVEIS.</t>
+  </si>
+  <si>
+    <t>MESA DESMONTÁVEL PLÁSTICA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA QUADRADA DESMONTÁVEL PLÁSTICA, MEDINDO 80X80 CM, ALTURA DE 74 CM, PESANDO 5,8 KG, MULTIUSO PARA ÁREAS DE LAZER, COM PÉS DESMONTÁVEIS</t>
+  </si>
+  <si>
+    <t>MESA DE TÊNIS DE MESA DOBRÁVEL; COM SUPORTE PARA REDE E MESA TÊNIS DE MESA PING PONG; EM MDP; COM MEDIDAS OFICIAIS, QUE ATENDEM AOS PADRÕES DA ITTF (INTERNATIONAL TABLE TENNIS FEDERATION). DESCRIÇÃO: ACABAMENTO EM PRIMER (TINTA) AZUL COM LINHAS DEMARCATÓRIAS BRANCAS; PÉS DE MADEIRA MACIÇA DOBRÁVEIS; TAMPO EM MDP COM 18 MM DE ESPESSURA. INFORMAÇÕES TÉCNICAS - PESO: 70 KG.</t>
+  </si>
+  <si>
+    <t>MESA/BANCADA INDUSTRIAL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA INDUSTRIAL EM AÇO INOX 100% INOXIDÁVEL, COM ESPELHO FRONTÃO DE 10 CM, DUAS PRATELEIRAS REFORÇADAS, PÉS AJUSTÁVEIS PARA MAIOR SEGURANÇA E ESTABILIDADE, MEDIDA MÍNIMA DE 150 CM DE COMPRIMENTO, 60 CM DE LARGURA E 80 CM DE ALTURA.</t>
+  </si>
+  <si>
+    <t>MICROFONE DE MESA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MICROFONE DE MESA CONDENSADOR COM CONEXÃO USB 2.0, RESOLUÇÃO DE 16 BITS / 48 KHZ, PADRÃO POLAR CARDIOIDE, RESPOSTA DE FREQUÊNCIA DE 20 HZ A 20 KHZ, PESO DE 400 G, DIMENSÕES DE 15 CM X 8 CM X 8 CM, SUPORTE AJUSTÁVEL E FILTRO ANTI-PUFF.</t>
+  </si>
+  <si>
+    <t>MICROFONE SEM FIO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MICROFONE SEM FIO COM FREQUÊNCIA 686.1MHZ, MODULAÇÃO FM, DESVIO MÁXIMO ±75KHZ, EMISSÃO SIMULADA 40DB, CONSUMO DE CORRENTE 100MA, ALIMENTAÇÃO 3V COM 2 PILHAS AA, PESO 0,8KG. FAIXA DE FREQUÊNCIA 614~806MHZ, ESTABILIDADE DE FREQUÊNCIA 0.005%, SAÍDA DE RF -100DBM, IMAGEM DE REJEIÇÃO ESPELHADA 45DB, SINAL RUÍDO 95DB, DISTORÇÃO 0.5%, NÍVEL DE SAÍDA DE ÁUDIO 1V - 10K, ALIMENTAÇÃO DC12V 500MA.</t>
+  </si>
+  <si>
+    <t>MOTOR PORTÃO ELETRÔNICO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - KIT MOTOR PARA PORTÃO DESLIZANTE ATÉ 600KG 1/4 AUTOMÁTICO COM ABERTURA RÁPIDA, ACOMPANHA 01 MOTOR, 01 PLACA ELETRÔNICA, 02 CONTROLES, 02 SUPORTES PARA CONTROLE, 02 SENSORES HALL (FIM DE CURSO), 01 CAPACITOR E 02 CHAVES PARA DESTRAVAMENTO EM CASO DE FALTA DE ENERGIA.</t>
+  </si>
+  <si>
+    <t>MOUSE USB - CONFORME TERMO DE REFERÊNCIA</t>
+  </si>
+  <si>
+    <t>OXÍMETRO DIGITAL DE DEDO ADULTO,CONFORME ESPECIFICAÇÕES TÉCNICAS EM ANEXO.</t>
+  </si>
+  <si>
+    <t>PROCESSADOR TRITURADOR ALIMENTOS - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - PROCESSADOR DE ALIMENTO INDUSTRIAL CUTTER 4 LITROS EM INOX, MOTOR 0,5CV, ROTAÇÃO 1650 RPM, CAPACIDADE 4 LITROS, CONSUMO 0,37 KW/H, PESO 10,5KG, LÂMINA EM AÇO INOX, TAMPA EM PLÁSTICO ATÓXICO, COPO EM AÇO INOX 306, GABINETE EM AÇO INOX 432, BASE PLÁSTICA, NORMA DE SEGURANÇA NR12.</t>
+  </si>
+  <si>
+    <t>PROJETOR MULTIMÍDIA - CONFORME PARECER TÉCNICO I</t>
   </si>
   <si>
     <t>PUFF PERA 90CM DIÂMETRO COURINO CORES: ROSA, VERMELHO, AZUL, VERDE.</t>
   </si>
   <si>
-    <t>PUFF QUADRADO EM CORINO COM ESTRUTURA EM MADEIRA E COMPENSADO, REVESTIDO EM CORINO COLORIDOS, ESPUMA DENSIDADE D23 PARA MAIOR CONFORTO, PÉS EM PVC, DIMENSÕES DE 35CM DE LARGURA X 35CM DE PROFUNDIDADE X 43CM DE ALTURA.</t>
-  </si>
-  <si>
-    <t>QUADRO DE AVISO BRANCO QUADRO DE AVISO LISO, COM MOLDURA EM ALUMÍNIO. DIMENSAO APROXIMADA; 1200 MM X 900 MM.</t>
-  </si>
-  <si>
-    <t>QUADRO MURAL MAGNÉTICO (RECADOS NOTAS E FOTOS) 100CMX80CM COM 50 IMAS.</t>
+    <t>PUFF - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - PUFF QUADRADO EM CORINO COM ESTRUTURA EM MADEIRA E COMPENSADO, REVESTIDO EM CORINO COLORIDOS, ESPUMA DENSIDADE D23 PARA MAIOR CONFORTO, PÉS EM PVC, DIMENSÕES DE 35CM DE LARGURA X 35CM DE PROFUNDIDADE X 43CM DE ALTURA.</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO BRANCO QUADRO DE AVISO LISO, COM MOLDURA EM ALUMÍNIO. DIMENSÃO APROXIMADA: 1200 MM X 900 MM.</t>
+  </si>
+  <si>
+    <t>QUADRO MURAL MAGNÉTICO (RECADOS, NOTAS E FOTOS) 100CMX80CM COM 50 IMAS.</t>
   </si>
   <si>
     <t>QUADRO DE AVISOS DE FELTRO COM MOLDURA ALUMÍNIO 90 CM X 60 CM</t>
   </si>
   <si>
-    <t>REFRIGERADOR EXPOSITOR VERTICAL COM CAPACIDADE TOTAL DE 295 LITROS, SENDO 268 LITROS LÍQUIDOS, PORTA DE VIDRO DUPLO ANTIEMBAÇANTE, ILUMlNAÇAO INTERNA EM LED, TEMPERATURA AJUSTÁVEL DE 0 A 10"C, POSSUI 4 PRATELEIRAS REGULÁVEIS, FUNCIONAMENTO SILENCIOSO, GÁS REFRIGERANTE R600A, POTÊNCIA DE 390W, VOLTAGEM 110V, MEDIDAS DE 57,5CM DE LARGURA X 181 CM DE ALTURA X 60CM DE PROFUNDIDADE, PESO LÍQUIDO 62KG, ACABAMENTO NA COR PRETA E GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>SANDUICHEIRA GRILL COM POTÊNCIA DE 1000W, TENSÃO 127V OU 220V, CONSUMO DE 1,0KW/H, ABERTURA DE 180 GRAUS, ESTRUTURA COM DIMENSÕES DE 280X90X245MM. PESO DE 1,24KG E GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>SMARTPHONE COM PROCESSADOR MEDIATEK HELIO G99-ULTRA OCTA CORE, SENDO 2X CORTEX-A76 DE 2.2GHZ E 6X CORTEX-A55 DE 2.0GHZ, GPU MALI-G57 MC2, MEMÓRIA INTERNA DE 256GB E RAM DE 8GB + 8GB VIRTUAL, TELA AMOLED DE 6,67 POLEGADAS COM RESOLUÇAO FHD+ {2400 X 1080) E DENSIDADE DE 395 PPl, BRILHO DE ATÉ 1800 NITS, COM PROTEÇAO CORNING® GORILLA® GLASS 5, CAMERA TRASEIRA DE 108MP + 2MP + 2MP E CAMERA FRONTAL DE 20MP, SUPORTA 2 NANOSIM OU 1 NANOSIM + 1 MiCROSD, CONECTIVIDADE 4G, 3G E 2G, E CARREGAMENTO RÁPIDO DE ATÉ 33W.</t>
-  </si>
-  <si>
-    <t>SOFÁ DE ESPERA 02(DOIS) LUGARES ENCOSTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 18 MM DE ESPESSURA COM ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M^ E 40 MM DE ESPESSURA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M^ E 30 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M^ E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DEVE SER EM MADEIRA DE 1" DE ESPESSURA. O REVESTIMENTO DEVE SER EM COURISSiMO E FIXADO POR GRAMPOS COM ACABAMENTO ZINCADO. O ASSENTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 10 MM DE ESPESSURA COM ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/W E 20 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M= E 7 MM DE ESPESSURA MÉDIA. A ALMOFADA DEVE SER EM ESPUMA EXPANDIDA/LAMINADA. ISENTA DE CFC, COM DENSIDADE DE 26 KG/M=&gt; E 150 MM DE ESPESSURA MÉDIA. A ESTRUTURA DO SOFÁ DEVE SER EM MADEIRA DE 1" DE ESPESSURA. O REVESTIMENTO DEVE SER EM COURISSIMO FIXADO POR GRAMPOS COM ACABAMENTO ZINCADO. AS LATERAIS DEVEM SER CONFECCIONADAS EM CHAPA DE EUCATEX DE 3 MM DE ESPESSURA. ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 20 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DO SOFÁ DEVE SER EM MADEIRA DE 1" DE ESPESSURA, FIXADO POR GRAMPOS COM ACABAMENTO ZINCADO A ESTRUTURA TUBULAR EXTERNA DEVE SER CONFECCIONADA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 25,40 MM DE DIÂMETRO (1"), E 2,25MM DE ESPESSURA DE PAREDE, BASE DA ESTRUTURA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 15,87MM DE DIÂMETRO (5/8”) E 1,90MM DE ESPESSURA DE PAREDE, TUBO DE UNIÂO DA ESTRUTURA EM AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 19,05 MM DE DIÂMETRO E 1,90 MM DE ESPESSURA DE PAREDE. OS COMPONENTES METÁLICOS DEVEM SER PINTADOS E POSSUIR TRATAMENTO DE SUPERFÍCIE ANTIFERRUGINOSO. OS COMPONENTES METÁLICOS DEVEM SER CROMADOS DIMENSÕES APROXIMADAS DA CADEIRA: LARGURA DO ASSENTO 2L : 500 MM LARGURA DO ENCOSTO 2L: 500 MM PROFUNDIDADE DO ASSENTO: 550 MM ALTURA DO ENCOSTO: 350 MM PROFUNDIDADE TOTAL: 850 MM ALTURA TOTAL: 710 MM LARGURA DO CONJUNTO 2 LUGARES: 1350 MM</t>
-  </si>
-  <si>
-    <t>SOFÁ DE ESPERA 04 (QUATRO) LUGARES O ENCOSTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 18 MM DE ESPESSURA COM ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 40 MM DE ESPESSURA, ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 30 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M=» E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DO SOFÁ DEVE SER EM MADEIRA DE 1" DE ESPESSURA E REVESTIMENTO EM COURÍSSIMO FIXADO POR GRAMPOS E DEVE CONTER ACABAMENTO ZINCADO. O ASSENTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 10 MM DE ESPESSURA COM ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 20 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 7 MM DE ESPESSURA MÉDIA, AS ALMOFADA DEVEM SER EM ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 26 KG/M" E 150 MM DE ESPESSURA MÉDIA. COM REVESTIMENTO EM COURÍSSIMO FIXADO POR GRAMPOS E DEVE CONTER ACABAMENTO ZINCADO. AS LATERAIS DEVEM SER CONFECCIONADAS EM CHAPA DE EUCATEX DE 3 MM DE ESPESSURA. ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 20 MM DE ESPESSURA MÉDIA. ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M" E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DEVE SER TUBULAR EXTERNA E CONFECCIONADA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 25,40 MM DE DIÂMETRO (1"), E 2,25MM DE ESPESSURA DE PAREDE, COM BASE DA ESTRUTURA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 15,87MM DE DIÂMETRO (5/8") E 1,90MM DE ESPESSURA DE PAREDE, TUBO DE UNiAO DA ESTRUTURA EM AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 19,05 MM DE DIÂMETRO E 1,90 MM DE ESPESSURA DE PAREDE. QUANTO AO ACABAMENTO, OS COMPONENTES METÁLICOS DEVEM SER PINTADOS POSSUINDO TRATAMENTO DE SUPERFÍCIE DIMENSÕES APROXIMADAS DA CADEIRA: LARGURA DO ASSENTO 4L ; 500 MM LARGURA DO ENCOSTO 4L : 500 MM PROFUNDIDADE DO ASSENTO: 550 MM ALTURA DO ENCOSTO: 350 PROFUNDIDADE TOTAL 850 MM ALTURA TOTAL : 710 MM LARGURA DO CONJUNTO 4 LUGARES: APROXIMADA DE 2350 MM.</t>
-  </si>
-  <si>
-    <t>SWITCH GERENCIÁVEL COM 24 PORTAS ETHERNET + 4 PORTAS SFP, COM AS SEGUINTES CARACTERÍSTICAS: - 24 PORTAS 10/100/1000 RJ-45 COM NEGOCIAÇÃO AUTOMÁTICA - 4 PORTAS SFP 1000 MBPS (SFP 1000BASE-X) - MIPS DE NO MÍNIMO 500 MHZ - 32 MB DE MEMÓRIA FLASH - TAMANHO DO BUFFER DE PACOTES: 4,1 MB ~ SDRAM DE 128 MB CARACTERÍSTICAS DE GERENCIAMENTO: - INTERFACE DE LINHA DE COMANDO INTERFACE VIA NAVEGADOR WEB SNMP MANAGER IEEE 802.3 ETHERNET MIB * GARANTIA MÍNIMA DE 1 ANO.</t>
-  </si>
-  <si>
-    <t>TABLET COM TELA DE 11 POLEGADAS TFT, RESOLUÇÃO 1920X1200, PROCESSADOR OCTA CORE DE ATÉ 2.2GHZ, MEMÓRIA RAM DE 4GB, ARMAZENAMENTO INTERNO DE 64GB EXPANSÍVEL ATÉ 1TB VIA MiCROSD, SISTEMA OPERACIONAL ANDROID 14, CÂMERA TRASEIRA DE 8MP COM FOCO AUTOMÁTICO. CÂMERA FRONTAL DE 5MP, GRAVAÇÃO DE ViDEO EM FULL HD 1080P A 30FPS, CONEXÕES 5G, WI-FI DUAL BAND, BLUETOOTH 5.1, ENTRADA PARA FONE P2, USB 2.0, LOCALIZAÇÃO GPS, GLONASS, BEIDOU, GALILEO E QZSS, BATERÍA DE 7.040MAH, SUPORTE A REDE 2G, 3G, 4G E 5G.</t>
-  </si>
-  <si>
-    <t>TAMPO DE MDF PARA MESA.</t>
-  </si>
-  <si>
-    <t>TECLADO PRETO. PARA PC, USB, COM FIO (1.5M), PADRÃO ABNT2.</t>
-  </si>
-  <si>
-    <t>TELA DE PROJEÇÃO COM TRIPÉ 1,80M X 1,80M, FORMATO 1:1, TECIDO MATTE WHITE COM VERSO PRETO, BORDA PRETA, ÃREA DE PROJEÇÃO 1,80M X 1,80M, ALTURA AJUSTÁVEL ATÉ 3 METROS, PESO DO PRODUTO 12.6KG, PESO DA EMBALAGEM 13KG, MEDIDAS DO PRODUTO 2,03M X 8.3CM X 6,7CM, MEDIDAS DA EMBALAGEM 208CM X 11.5CM X 11CM,</t>
-  </si>
-  <si>
-    <t>VARAL DE CHÃO COM ABAS. ALTURA: 91CM: U\RGURA: 56CM; PROFUNDIDADE: 153CM: PESO: 1,750KG: ESTRUTURA EM TUBO DE AÇO COM ACABAMENTO EM PINTURA EPÓXI A PÔ.</t>
-  </si>
-  <si>
-    <t>WEBCAM VIDEOCHAMADA HD (1280 X 720 PIXELS) 30FPS; FOTOS: 3 MEGAPIXELS OU SUPER. COMPATÍVEL COM WINDOWS 7 OU SUPERIOR; USB 2.0 PLUG AND PLAY; COM MICROFONE INTEGRADO; CLIPE UNIVERSAL QUE SE AJUSTA A LAPTOPS E MONITORES;</t>
+    <t>REFRIGERADOR EXPOSITOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - REFRIGERADOR EXPOSITOR VERTICAL COM CAPACIDADE TOTAL DE 295 LITROS, SENDO 268 LITROS LÍQUIDOS, PORTA DE VIDRO DUPLO ANTIEMBAÇANTE, ILUMINAÇÃO INTERNA EM LED, TEMPERATURA AJUSTÁVEL DE 0 A</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1146,13 +1113,13 @@
         <v>434.4</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1175,13 +1142,13 @@
         <v>36.33</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1201,13 +1168,13 @@
         <v>3659.32</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1230,13 +1197,13 @@
         <v>14499.45</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1256,13 +1223,13 @@
         <v>837</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1282,13 +1249,13 @@
         <v>8302.799999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1311,13 +1278,13 @@
         <v>1809.73</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1337,13 +1304,13 @@
         <v>5172.54</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1363,13 +1330,13 @@
         <v>395.28</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1392,13 +1359,13 @@
         <v>2599.8</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1421,13 +1388,13 @@
         <v>2770.47</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1447,13 +1414,13 @@
         <v>17931</v>
       </c>
       <c r="G13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1476,13 +1443,13 @@
         <v>4179.98</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H14" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1502,13 +1469,13 @@
         <v>2756.64</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1528,13 +1495,13 @@
         <v>2015.94</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1557,13 +1524,13 @@
         <v>910.77</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I17" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1583,13 +1550,13 @@
         <v>3448.2</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I18" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1612,13 +1579,13 @@
         <v>914.01</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1641,13 +1608,13 @@
         <v>2359.43</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1667,13 +1634,13 @@
         <v>1844.86</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I21" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1693,13 +1660,13 @@
         <v>7819.66</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1722,13 +1689,13 @@
         <v>162.65</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1751,13 +1718,13 @@
         <v>2970.98</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1777,13 +1744,13 @@
         <v>24963.34</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1803,13 +1770,13 @@
         <v>6149.52</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1829,13 +1796,13 @@
         <v>1237.8</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1855,13 +1822,13 @@
         <v>578.74</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1884,13 +1851,13 @@
         <v>2559.09</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1913,13 +1880,13 @@
         <v>1471</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1942,13 +1909,13 @@
         <v>1453.3</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1971,13 +1938,13 @@
         <v>2194.5</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2000,13 +1967,13 @@
         <v>427.98</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H33" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2026,13 +1993,13 @@
         <v>282.02</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2055,13 +2022,13 @@
         <v>298.44</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I35" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2084,13 +2051,13 @@
         <v>1785.11</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2113,13 +2080,13 @@
         <v>1222.39</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2139,13 +2106,13 @@
         <v>713.62</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2168,13 +2135,13 @@
         <v>6268.4</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2197,13 +2164,13 @@
         <v>3462.11</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H40" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I40" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2223,13 +2190,13 @@
         <v>856.52</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I41" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2249,13 +2216,13 @@
         <v>878.78</v>
       </c>
       <c r="G42" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H42" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I42" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2275,13 +2242,13 @@
         <v>7284.16</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2301,13 +2268,13 @@
         <v>425.82</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2330,13 +2297,13 @@
         <v>2450.85</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2356,13 +2323,13 @@
         <v>5166.02</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H46" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I46" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2382,13 +2349,13 @@
         <v>2637.92</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I47" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2411,13 +2378,13 @@
         <v>3557.25</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2437,13 +2404,13 @@
         <v>2896.32</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I49" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2466,13 +2433,13 @@
         <v>1555.31</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2492,13 +2459,13 @@
         <v>700.04</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I51" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2521,13 +2488,13 @@
         <v>19458.75</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2547,13 +2514,13 @@
         <v>2559.68</v>
       </c>
       <c r="G53" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I53" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2576,13 +2543,13 @@
         <v>1935.2</v>
       </c>
       <c r="G54" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I54" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2605,13 +2572,13 @@
         <v>1336.05</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2631,13 +2598,13 @@
         <v>903.78</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I56" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2660,13 +2627,13 @@
         <v>611.2</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I57" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2689,13 +2656,13 @@
         <v>31.54</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I58" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2718,13 +2685,13 @@
         <v>598.85</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I59" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2747,13 +2714,13 @@
         <v>2317.63</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I60" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2773,13 +2740,13 @@
         <v>11561.88</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I61" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2799,13 +2766,13 @@
         <v>1343.22</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I62" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2825,13 +2792,13 @@
         <v>140.1</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H63" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I63" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2851,13 +2818,13 @@
         <v>332.88</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I64" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2880,13 +2847,13 @@
         <v>379.98</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I65" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2906,13 +2873,13 @@
         <v>206.18</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I66" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2935,13 +2902,13 @@
         <v>3903.72</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H67" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I67" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2951,9 +2918,6 @@
       <c r="B68" t="s">
         <v>149</v>
       </c>
-      <c r="C68" t="s">
-        <v>226</v>
-      </c>
       <c r="D68">
         <v>2</v>
       </c>
@@ -2961,13 +2925,13 @@
         <v>340.62</v>
       </c>
       <c r="G68" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H68" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I68" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2977,9 +2941,6 @@
       <c r="B69" t="s">
         <v>150</v>
       </c>
-      <c r="C69" t="s">
-        <v>227</v>
-      </c>
       <c r="D69">
         <v>2</v>
       </c>
@@ -2987,13 +2948,13 @@
         <v>4016.96</v>
       </c>
       <c r="G69" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H69" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I69" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3003,9 +2964,6 @@
       <c r="B70" t="s">
         <v>151</v>
       </c>
-      <c r="C70" t="s">
-        <v>228</v>
-      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -3016,13 +2974,13 @@
         <v>3108.93</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H70" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I70" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3032,9 +2990,6 @@
       <c r="B71" t="s">
         <v>152</v>
       </c>
-      <c r="C71" t="s">
-        <v>229</v>
-      </c>
       <c r="D71">
         <v>1</v>
       </c>
@@ -3045,13 +3000,13 @@
         <v>2120.58</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I71" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3061,9 +3016,6 @@
       <c r="B72" t="s">
         <v>153</v>
       </c>
-      <c r="C72" t="s">
-        <v>230</v>
-      </c>
       <c r="D72">
         <v>1</v>
       </c>
@@ -3074,13 +3026,13 @@
         <v>1689.26</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H72" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I72" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3090,9 +3042,6 @@
       <c r="B73" t="s">
         <v>154</v>
       </c>
-      <c r="C73" t="s">
-        <v>231</v>
-      </c>
       <c r="D73">
         <v>25</v>
       </c>
@@ -3103,13 +3052,13 @@
         <v>33819</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I73" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3119,9 +3068,6 @@
       <c r="B74" t="s">
         <v>155</v>
       </c>
-      <c r="C74" t="s">
-        <v>232</v>
-      </c>
       <c r="D74">
         <v>70</v>
       </c>
@@ -3129,13 +3075,13 @@
         <v>16503.9</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H74" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I74" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3145,9 +3091,6 @@
       <c r="B75" t="s">
         <v>156</v>
       </c>
-      <c r="C75" t="s">
-        <v>233</v>
-      </c>
       <c r="D75">
         <v>4</v>
       </c>
@@ -3155,13 +3098,13 @@
         <v>131.28</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H75" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I75" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3171,9 +3114,6 @@
       <c r="B76" t="s">
         <v>157</v>
       </c>
-      <c r="C76" t="s">
-        <v>234</v>
-      </c>
       <c r="D76">
         <v>2</v>
       </c>
@@ -3181,13 +3121,13 @@
         <v>1225.84</v>
       </c>
       <c r="G76" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H76" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I76" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3197,9 +3137,6 @@
       <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
-        <v>235</v>
-      </c>
       <c r="D77">
         <v>8</v>
       </c>
@@ -3207,13 +3144,13 @@
         <v>1146.8</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H77" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I77" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3223,9 +3160,6 @@
       <c r="B78" t="s">
         <v>159</v>
       </c>
-      <c r="C78" t="s">
-        <v>236</v>
-      </c>
       <c r="D78">
         <v>10</v>
       </c>
@@ -3233,13 +3167,13 @@
         <v>1252.2</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H78" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I78" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
